--- a/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v1.xlsx
+++ b/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v1.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" activeTab="3"/>
+    <workbookView windowWidth="27645" windowHeight="12330" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
     <sheet name="域定义" sheetId="3" r:id="rId2"/>
     <sheet name="nop_auth_user" sheetId="6" r:id="rId3"/>
     <sheet name="org_unit_department" sheetId="5" r:id="rId4"/>
-    <sheet name="org_unit_area" sheetId="7" r:id="rId5"/>
+    <sheet name="org_unit_region" sheetId="7" r:id="rId5"/>
     <sheet name="org_unit_job_title" sheetId="8" r:id="rId6"/>
     <sheet name="org_staff_employee" sheetId="9" r:id="rId7"/>
   </sheets>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="152">
   <si>
     <t>#变量名</t>
   </si>
@@ -277,12 +277,18 @@
     <t>部门ID</t>
   </si>
   <si>
+    <t>disp</t>
+  </si>
+  <si>
     <t>NAME</t>
   </si>
   <si>
     <t>部门名称</t>
   </si>
   <si>
+    <t>parent</t>
+  </si>
+  <si>
     <t>PARENT_ID</t>
   </si>
   <si>
@@ -340,9 +346,6 @@
     <t>属性名</t>
   </si>
   <si>
-    <t>parent</t>
-  </si>
-  <si>
     <t>关联属性名</t>
   </si>
   <si>
@@ -364,9 +367,15 @@
     <t>关联中文名</t>
   </si>
   <si>
+    <t>下级部门</t>
+  </si>
+  <si>
     <t>关联英文名</t>
   </si>
   <si>
+    <t>Children</t>
+  </si>
+  <si>
     <t>pub,ref-pub</t>
   </si>
   <si>
@@ -391,10 +400,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>org_unit_area</t>
-  </si>
-  <si>
-    <t>Area</t>
+    <t>org_unit_region</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
   <si>
     <t>区域</t>
@@ -412,6 +421,9 @@
     <t>上级区域</t>
   </si>
   <si>
+    <t>下级区域</t>
+  </si>
+  <si>
     <t>org_unit_job_title</t>
   </si>
   <si>
@@ -439,7 +451,7 @@
     <t>JOB_TITLE_ID</t>
   </si>
   <si>
-    <t>AREA_ID</t>
+    <t>REGION_ID</t>
   </si>
   <si>
     <t>DEPARTMENT_ID</t>
@@ -454,10 +466,10 @@
     <t>jobTitleId</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>areaId</t>
+    <t>region</t>
+  </si>
+  <si>
+    <t>regionId</t>
   </si>
   <si>
     <t>department</t>
@@ -2420,8 +2432,8 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2657,14 +2669,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="7" t="s">
@@ -2687,14 +2701,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
@@ -2717,14 +2733,14 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>39</v>
@@ -2749,14 +2765,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>43</v>
@@ -2781,14 +2797,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>41</v>
@@ -2797,7 +2813,7 @@
         <v>78</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -2811,24 +2827,24 @@
         <v>903</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>45</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>36</v>
@@ -2847,18 +2863,18 @@
         <v>904</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>44</v>
@@ -2867,7 +2883,7 @@
         <v>78</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -2881,27 +2897,27 @@
         <v>905</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -2966,7 +2982,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2989,22 +3005,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="5" t="s">
@@ -3021,7 +3037,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3029,16 +3045,16 @@
         <v>55</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -3047,16 +3063,20 @@
     <row r="23" s="1" customFormat="1" spans="1:16">
       <c r="A23" s="15"/>
       <c r="B23" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
@@ -3084,7 +3104,7 @@
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -3093,7 +3113,7 @@
     <row r="25" s="1" customFormat="1" spans="1:16">
       <c r="A25" s="15"/>
       <c r="B25" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -3116,19 +3136,19 @@
         <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -3144,13 +3164,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -3268,7 +3288,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3290,7 +3310,7 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -3299,7 +3319,7 @@
         <v>51</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
@@ -3316,7 +3336,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -3325,7 +3345,7 @@
         <v>55</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -3481,7 +3501,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="7" t="s">
@@ -3504,14 +3524,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="7" t="s">
@@ -3534,14 +3556,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
@@ -3564,14 +3588,14 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>39</v>
@@ -3596,14 +3620,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>43</v>
@@ -3628,14 +3652,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>41</v>
@@ -3644,7 +3668,7 @@
         <v>78</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -3658,24 +3682,24 @@
         <v>903</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>45</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>36</v>
@@ -3694,18 +3718,18 @@
         <v>904</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>44</v>
@@ -3714,7 +3738,7 @@
         <v>78</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -3728,27 +3752,27 @@
         <v>905</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -3813,7 +3837,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3836,26 +3860,26 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -3868,7 +3892,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3876,16 +3900,16 @@
         <v>55</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -3894,16 +3918,20 @@
     <row r="23" s="1" customFormat="1" spans="1:16">
       <c r="A23" s="15"/>
       <c r="B23" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
@@ -3931,7 +3959,7 @@
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -3940,7 +3968,7 @@
     <row r="25" s="1" customFormat="1" spans="1:16">
       <c r="A25" s="15"/>
       <c r="B25" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -3963,19 +3991,19 @@
         <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -3991,13 +4019,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -4115,7 +4143,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4137,7 +4165,7 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -4146,7 +4174,7 @@
         <v>51</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
@@ -4163,7 +4191,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4172,7 +4200,7 @@
         <v>55</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -4328,7 +4356,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="7" t="s">
@@ -4351,14 +4379,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="7" t="s">
@@ -4383,14 +4413,14 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>39</v>
@@ -4415,14 +4445,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>43</v>
@@ -4447,14 +4477,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>41</v>
@@ -4463,7 +4493,7 @@
         <v>78</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -4477,24 +4507,24 @@
         <v>903</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>45</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>36</v>
@@ -4513,18 +4543,18 @@
         <v>904</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>44</v>
@@ -4533,7 +4563,7 @@
         <v>78</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -4547,27 +4577,27 @@
         <v>905</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -4655,8 +4685,8 @@
   <sheetPr/>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4678,7 +4708,7 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -4687,7 +4717,7 @@
         <v>51</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
@@ -4704,7 +4734,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4713,7 +4743,7 @@
         <v>55</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -4869,7 +4899,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="7" t="s">
@@ -4892,14 +4922,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="7" t="s">
@@ -4924,12 +4956,12 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
@@ -4952,12 +4984,12 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="7"/>
@@ -4980,7 +5012,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -5008,14 +5040,14 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>39</v>
@@ -5040,14 +5072,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>43</v>
@@ -5072,14 +5104,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>41</v>
@@ -5088,7 +5120,7 @@
         <v>78</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -5102,24 +5134,24 @@
         <v>903</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>45</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>36</v>
@@ -5138,18 +5170,18 @@
         <v>904</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>44</v>
@@ -5158,7 +5190,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -5172,27 +5204,27 @@
         <v>905</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -5257,7 +5289,7 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="1:16">
       <c r="A22" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -5280,26 +5312,26 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -5312,7 +5344,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -5320,16 +5352,16 @@
         <v>55</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -5338,14 +5370,14 @@
     <row r="25" s="1" customFormat="1" spans="1:16">
       <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5375,7 +5407,7 @@
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -5384,7 +5416,7 @@
     <row r="27" s="1" customFormat="1" spans="1:16">
       <c r="A27" s="13"/>
       <c r="B27" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -5407,19 +5439,19 @@
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -5435,13 +5467,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -5494,26 +5526,26 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -5526,7 +5558,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -5534,16 +5566,16 @@
         <v>55</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -5552,14 +5584,14 @@
     <row r="34" s="1" customFormat="1" spans="1:16">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -5589,7 +5621,7 @@
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -5598,7 +5630,7 @@
     <row r="36" s="1" customFormat="1" spans="1:16">
       <c r="A36" s="13"/>
       <c r="B36" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -5621,19 +5653,19 @@
         <v>28</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5649,13 +5681,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -5708,22 +5740,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
@@ -5753,11 +5785,11 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -5766,14 +5798,14 @@
     <row r="43" s="1" customFormat="1" spans="1:16">
       <c r="A43" s="13"/>
       <c r="B43" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -5803,7 +5835,7 @@
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -5812,7 +5844,7 @@
     <row r="45" s="1" customFormat="1" spans="1:16">
       <c r="A45" s="13"/>
       <c r="B45" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
@@ -5835,19 +5867,19 @@
         <v>28</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -5863,13 +5895,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>

--- a/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v1.xlsx
+++ b/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v1.xlsx
@@ -4,23 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" activeTab="6"/>
+    <workbookView windowWidth="27645" windowHeight="12330" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
     <sheet name="域定义" sheetId="3" r:id="rId2"/>
-    <sheet name="nop_auth_user" sheetId="6" r:id="rId3"/>
-    <sheet name="org_unit_department" sheetId="5" r:id="rId4"/>
-    <sheet name="org_unit_region" sheetId="7" r:id="rId5"/>
-    <sheet name="org_unit_job_title" sheetId="8" r:id="rId6"/>
-    <sheet name="org_staff_employee" sheetId="9" r:id="rId7"/>
+    <sheet name="org_unit_department" sheetId="5" r:id="rId3"/>
+    <sheet name="org_unit_region" sheetId="7" r:id="rId4"/>
+    <sheet name="org_unit_job_title" sheetId="8" r:id="rId5"/>
+    <sheet name="org_staff_employee" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="139">
   <si>
     <t>#变量名</t>
   </si>
@@ -127,16 +126,22 @@
     <t>Java类型</t>
   </si>
   <si>
-    <t>email</t>
+    <t>createdBy</t>
   </si>
   <si>
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>userId</t>
+    <t>updatedBy</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>updateTime</t>
   </si>
   <si>
     <t>version</t>
@@ -145,21 +150,6 @@
     <t>INTEGER</t>
   </si>
   <si>
-    <t>createTime</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>createdBy</t>
-  </si>
-  <si>
-    <t>updateTime</t>
-  </si>
-  <si>
-    <t>updatedBy</t>
-  </si>
-  <si>
     <t>delFlag</t>
   </si>
   <si>
@@ -172,39 +162,27 @@
     <t>表名</t>
   </si>
   <si>
-    <t>nop_auth_user</t>
+    <t>org_unit_department</t>
   </si>
   <si>
     <t>对象名</t>
   </si>
   <si>
-    <t>io.nop.auth.dao.entity.NopAuthUser</t>
+    <t>Department</t>
   </si>
   <si>
     <t>中文名</t>
   </si>
   <si>
-    <t>用户</t>
+    <t>部门</t>
   </si>
   <si>
     <t>英文名</t>
   </si>
   <si>
-    <t>NopAuthUser</t>
-  </si>
-  <si>
     <t>标签</t>
   </si>
   <si>
-    <t>not-gen</t>
-  </si>
-  <si>
-    <t>所属模块</t>
-  </si>
-  <si>
-    <t>nop/auth</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -244,39 +222,21 @@
     <t>PK</t>
   </si>
   <si>
-    <t>USER_ID</t>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>User ID</t>
-  </si>
-  <si>
-    <t>用户ID</t>
+    <t>部门ID</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>org_unit_department</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>部门</t>
-  </si>
-  <si>
-    <t>seq</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>部门ID</t>
-  </si>
-  <si>
     <t>disp</t>
   </si>
   <si>
@@ -292,7 +252,37 @@
     <t>PARENT_ID</t>
   </si>
   <si>
-    <t>上级部门ID</t>
+    <t>上级部门</t>
+  </si>
+  <si>
+    <t>CREATED_BY</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>UPDATED_BY</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>CREATED_AT</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>UPDATED_AT</t>
+  </si>
+  <si>
+    <t>更新时间</t>
   </si>
   <si>
     <t>VERSION</t>
@@ -301,40 +291,10 @@
     <t>数据版本</t>
   </si>
   <si>
-    <t>CREATED_BY</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>CREATED_AT</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>UPDATED_BY</t>
-  </si>
-  <si>
-    <t>更新人</t>
-  </si>
-  <si>
-    <t>UPDATED_AT</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
     <t>DELETED</t>
   </si>
   <si>
-    <t>逻辑删除</t>
+    <t>已删除？</t>
   </si>
   <si>
     <t>BOOLEAN</t>
@@ -352,9 +312,6 @@
     <t>关联对象</t>
   </si>
   <si>
-    <t>上级部门</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
@@ -367,16 +324,10 @@
     <t>关联中文名</t>
   </si>
   <si>
-    <t>下级部门</t>
-  </si>
-  <si>
     <t>关联英文名</t>
   </si>
   <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>pub,ref-pub</t>
+    <t>pub</t>
   </si>
   <si>
     <t>关联条件</t>
@@ -415,15 +366,9 @@
     <t>区域名称</t>
   </si>
   <si>
-    <t>上级区域ID</t>
-  </si>
-  <si>
     <t>上级区域</t>
   </si>
   <si>
-    <t>下级区域</t>
-  </si>
-  <si>
     <t>org_unit_job_title</t>
   </si>
   <si>
@@ -448,13 +393,28 @@
     <t>员工</t>
   </si>
   <si>
+    <t>员工ID</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>姓</t>
+  </si>
+  <si>
+    <t>REGION_ID</t>
+  </si>
+  <si>
+    <t>DEPARTMENT_ID</t>
+  </si>
+  <si>
     <t>JOB_TITLE_ID</t>
-  </si>
-  <si>
-    <t>REGION_ID</t>
-  </si>
-  <si>
-    <t>DEPARTMENT_ID</t>
   </si>
   <si>
     <t>jobTitle</t>
@@ -488,14 +448,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,7 +620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,30 +648,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,6 +773,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -909,7 +844,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1009,26 +944,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,163 +1070,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,16 +1244,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1352,6 +1274,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1364,10 +1295,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="14" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="14" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,88 +1307,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1788,151 +1665,151 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.8416666666667" style="50" customWidth="1"/>
-    <col min="2" max="2" width="31.4" style="50" customWidth="1"/>
-    <col min="3" max="3" width="44.1583333333333" style="50" customWidth="1"/>
-    <col min="4" max="16384" width="10.125" style="50"/>
+    <col min="1" max="1" width="24.8416666666667" style="35" customWidth="1"/>
+    <col min="2" max="2" width="31.4" style="35" customWidth="1"/>
+    <col min="3" max="3" width="44.1583333333333" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="10.125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="50" customFormat="1" spans="1:3">
-      <c r="A1" s="51" t="s">
+    <row r="1" s="35" customFormat="1" spans="1:3">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="50" customFormat="1" ht="49.5" spans="1:3">
-      <c r="A2" s="52" t="s">
+    <row r="2" s="35" customFormat="1" ht="49.5" spans="1:3">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="50" customFormat="1" ht="66" spans="1:3">
-      <c r="A3" s="52" t="s">
+    <row r="3" s="35" customFormat="1" ht="66" spans="1:3">
+      <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="50" customFormat="1" ht="33" spans="1:3">
-      <c r="A4" s="52" t="s">
+    <row r="4" s="35" customFormat="1" ht="33" spans="1:3">
+      <c r="A4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="50" customFormat="1" spans="1:3">
-      <c r="A5" s="52" t="s">
+    <row r="5" s="35" customFormat="1" spans="1:3">
+      <c r="A5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="50" customFormat="1" spans="1:3">
-      <c r="A6" s="52" t="s">
+    <row r="6" s="35" customFormat="1" spans="1:3">
+      <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="50" customFormat="1" spans="1:3">
-      <c r="A7" s="52" t="s">
+    <row r="7" s="35" customFormat="1" spans="1:3">
+      <c r="A7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="50" customFormat="1" spans="1:3">
-      <c r="A8" s="52" t="s">
+    <row r="8" s="35" customFormat="1" spans="1:3">
+      <c r="A8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" s="50" customFormat="1" spans="1:3">
-      <c r="A9" s="52" t="s">
+    <row r="9" s="35" customFormat="1" spans="1:3">
+      <c r="A9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" s="50" customFormat="1" ht="33" spans="1:3">
-      <c r="A10" s="52" t="s">
+    <row r="10" s="35" customFormat="1" ht="33" spans="1:3">
+      <c r="A10" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" s="50" customFormat="1" ht="13.5" customHeight="1" spans="1:3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-    </row>
-    <row r="12" s="50" customFormat="1" spans="1:3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-    </row>
-    <row r="13" s="50" customFormat="1" spans="1:3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-    </row>
-    <row r="14" s="50" customFormat="1" spans="1:3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-    </row>
-    <row r="15" s="50" customFormat="1" spans="1:3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-    </row>
-    <row r="16" s="50" customFormat="1" spans="1:3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
+    <row r="11" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+    </row>
+    <row r="12" s="35" customFormat="1" spans="1:3">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+    </row>
+    <row r="13" s="35" customFormat="1" spans="1:3">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+    </row>
+    <row r="14" s="35" customFormat="1" spans="1:3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+    </row>
+    <row r="15" s="35" customFormat="1" spans="1:3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+    </row>
+    <row r="16" s="35" customFormat="1" spans="1:3">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1943,13 +1820,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
@@ -1983,7 +1860,7 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="7">
-        <v>3</v>
+        <v>901</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>35</v>
@@ -1993,14 +1870,14 @@
         <v>36</v>
       </c>
       <c r="E2" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="7">
-        <v>4</v>
+    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A3" s="9">
+        <v>902</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>37</v>
@@ -2010,46 +1887,44 @@
         <v>36</v>
       </c>
       <c r="E3" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="7">
-        <v>6</v>
+        <v>903</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="7">
-        <v>50</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="7">
-        <v>12</v>
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A5" s="9">
+        <v>904</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="7">
-        <v>13</v>
+      <c r="A6" s="11">
+        <v>905</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>41</v>
@@ -2062,71 +1937,22 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="7">
-        <v>14</v>
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A7" s="9">
+        <v>906</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="7">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="7">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:7">
-      <c r="A9" s="7">
-        <v>16</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="7">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2137,303 +1963,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="4.63333333333333" style="27" customWidth="1"/>
-    <col min="2" max="2" width="4.81666666666667" style="27" customWidth="1"/>
-    <col min="3" max="3" width="8.81666666666667" style="27" customWidth="1"/>
-    <col min="4" max="4" width="16.1833333333333" style="27" customWidth="1"/>
-    <col min="5" max="5" width="5.26666666666667" style="27" customWidth="1"/>
-    <col min="6" max="6" width="16.2666666666667" style="27" customWidth="1"/>
-    <col min="7" max="7" width="14" style="27" customWidth="1"/>
-    <col min="8" max="8" width="9.725" style="27"/>
-    <col min="9" max="9" width="5.09166666666667" style="27" customWidth="1"/>
-    <col min="10" max="10" width="11.8166666666667" style="27" customWidth="1"/>
-    <col min="11" max="11" width="6.54166666666667" style="27" customWidth="1"/>
-    <col min="12" max="12" width="8" style="27" customWidth="1"/>
-    <col min="13" max="13" width="9.725" style="27" customWidth="1"/>
-    <col min="14" max="14" width="7" style="27" customWidth="1"/>
-    <col min="15" max="16384" width="9.725" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="27" customFormat="1" spans="1:16">
-      <c r="A1" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="45"/>
-    </row>
-    <row r="2" s="27" customFormat="1" spans="1:16">
-      <c r="A2" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="45"/>
-    </row>
-    <row r="3" s="27" customFormat="1" spans="1:16">
-      <c r="A3" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" s="27" customFormat="1" spans="1:16">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="47"/>
-    </row>
-    <row r="5" s="27" customFormat="1" spans="1:16">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="48"/>
-    </row>
-    <row r="6" s="27" customFormat="1" spans="1:16">
-      <c r="A6" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-    </row>
-    <row r="7" s="27" customFormat="1" spans="1:16">
-      <c r="A7" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" s="27" customFormat="1" spans="1:16">
-      <c r="A8" s="35">
-        <v>1</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="35">
-        <v>50</v>
-      </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="49"/>
-    </row>
-    <row r="9" s="27" customFormat="1" spans="1:16">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="49"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A6:P6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2450,21 +1983,21 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
@@ -2476,21 +2009,21 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:16">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -2502,7 +2035,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2522,7 +2055,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2560,7 +2093,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2580,34 +2113,34 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>32</v>
@@ -2616,16 +2149,16 @@
         <v>33</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
@@ -2633,30 +2166,30 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="11">
-        <v>50</v>
+      <c r="K8" s="9">
+        <v>32</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -2670,24 +2203,24 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="20">
         <v>500</v>
       </c>
       <c r="L9" s="7"/>
@@ -2701,24 +2234,24 @@
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="11" t="s">
-        <v>88</v>
+      <c r="C10" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="11">
-        <v>50</v>
+      <c r="K10" s="9">
+        <v>32</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -2726,94 +2259,92 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:16">
-      <c r="A11" s="9">
-        <v>900</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="9" t="s">
+    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A11" s="7">
+        <v>901</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="23"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A12" s="7">
-        <v>901</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="3" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K11" s="9">
         <v>50</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A12" s="9">
+        <v>902</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="9">
+        <v>50</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A13" s="7">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>97</v>
+        <v>71</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -2822,109 +2353,103 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A14" s="11">
-        <v>903</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="11">
-        <v>50</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="24"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="16.5" spans="1:16">
+    <row r="14" s="2" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A14" s="9">
+        <v>904</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:16">
       <c r="A15" s="11">
-        <v>904</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>98</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="24"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A16" s="11">
-        <v>905</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="24"/>
+      <c r="P15" s="27"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A16" s="9">
+        <v>906</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:16">
       <c r="A17" s="7"/>
@@ -2982,7 +2507,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3005,26 +2530,26 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="5" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -3033,28 +2558,28 @@
     <row r="22" s="1" customFormat="1" spans="1:16">
       <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -3063,20 +2588,16 @@
     <row r="23" s="1" customFormat="1" spans="1:16">
       <c r="A23" s="15"/>
       <c r="B23" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>117</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
@@ -3089,7 +2610,7 @@
     <row r="24" s="1" customFormat="1" spans="1:16">
       <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="7"/>
@@ -3100,11 +2621,11 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -3113,7 +2634,7 @@
     <row r="25" s="1" customFormat="1" spans="1:16">
       <c r="A25" s="15"/>
       <c r="B25" s="14" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -3123,12 +2644,12 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="20"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="23"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:16">
       <c r="A26" s="15"/>
@@ -3136,19 +2657,19 @@
         <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -3164,13 +2685,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -3193,12 +2714,12 @@
       <c r="H28" s="18"/>
       <c r="I28" s="6"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="22"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="25"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:16">
       <c r="A29" s="15"/>
@@ -3211,12 +2732,855 @@
       <c r="H29" s="18"/>
       <c r="I29" s="6"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="22"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A21:A29"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:16">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:16">
+      <c r="A6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="20">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="20">
+        <v>500</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="20">
+        <v>32</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A11" s="7">
+        <v>901</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="9">
+        <v>50</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A12" s="9">
+        <v>902</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="9">
+        <v>50</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A13" s="7">
+        <v>903</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A14" s="9">
+        <v>904</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:16">
+      <c r="A15" s="11">
+        <v>905</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="27"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A16" s="9">
+        <v>906</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:16">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:16">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:16">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:16">
+      <c r="A20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:16">
+      <c r="A21" s="15">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:16">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:16">
+      <c r="A23" s="15"/>
+      <c r="B23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:16">
+      <c r="A24" s="15"/>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:16">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="23"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:16">
+      <c r="A26" s="15"/>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:16">
+      <c r="A27" s="15"/>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:16">
+      <c r="A28" s="15"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="25"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:16">
+      <c r="A29" s="15"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -3285,10 +3649,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3305,21 +3669,21 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
@@ -3331,21 +3695,21 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:16">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -3357,7 +3721,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3377,7 +3741,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3415,7 +3779,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3435,34 +3799,34 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>32</v>
@@ -3471,16 +3835,16 @@
         <v>33</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
@@ -3488,30 +3852,30 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="11">
-        <v>50</v>
+      <c r="K8" s="9">
+        <v>32</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -3525,24 +3889,24 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>500</v>
       </c>
       <c r="L9" s="7"/>
@@ -3553,26 +3917,26 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A10" s="7">
-        <v>3</v>
+        <v>901</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>50</v>
       </c>
       <c r="L10" s="7"/>
@@ -3581,919 +3945,62 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:16">
+    <row r="11" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A11" s="9">
-        <v>900</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>902</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>75</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="9">
+        <v>50</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="23"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A12" s="7">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="11">
-        <v>50</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A13" s="7">
-        <v>902</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A14" s="11">
-        <v>903</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="11">
-        <v>50</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="24"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A15" s="11">
-        <v>904</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="24"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A16" s="11">
-        <v>905</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="24"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:16">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:16">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:16">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:16">
-      <c r="A20" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:16">
-      <c r="A21" s="15">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:16">
-      <c r="A22" s="15"/>
-      <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:16">
-      <c r="A23" s="15"/>
-      <c r="B23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:16">
-      <c r="A24" s="15"/>
-      <c r="B24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:16">
-      <c r="A25" s="15"/>
-      <c r="B25" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="20"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:16">
-      <c r="A26" s="15"/>
-      <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:16">
-      <c r="A27" s="15"/>
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:16">
-      <c r="A28" s="15"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="22"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:16">
-      <c r="A29" s="15"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A21:A29"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
-      <c r="A1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
-      <c r="A2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="18"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:16">
-      <c r="A3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="18"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
-      <c r="A4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="18"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:16">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:16">
-      <c r="A6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:16">
-      <c r="A7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="11">
-        <v>50</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="J12" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="11">
-        <v>500</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:16">
-      <c r="A10" s="9">
-        <v>900</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="23"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A11" s="7">
-        <v>901</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="11">
-        <v>50</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A12" s="7">
-        <v>902</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -4502,109 +4009,103 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" s="3" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A13" s="11">
-        <v>903</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="11">
-        <v>50</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="24"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="16.5" spans="1:16">
+    <row r="13" s="2" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A13" s="9">
+        <v>904</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:16">
       <c r="A14" s="11">
-        <v>904</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>98</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="24"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A15" s="11">
-        <v>905</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="24"/>
+      <c r="P14" s="27"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A15" s="9">
+        <v>906</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:16">
       <c r="A16" s="7"/>
@@ -4680,13 +4181,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4695,7 +4196,7 @@
     <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -4703,21 +4204,21 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
@@ -4729,21 +4230,21 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:16">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -4755,7 +4256,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4775,7 +4276,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4813,7 +4314,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4833,34 +4334,34 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>32</v>
@@ -4869,16 +4370,16 @@
         <v>33</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
@@ -4886,30 +4387,30 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="11">
-        <v>50</v>
+      <c r="K8" s="20">
+        <v>32</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -4922,26 +4423,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="5" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="11">
-        <v>500</v>
+      <c r="K9" s="20">
+        <v>200</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -4956,20 +4455,22 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="11">
-        <v>50</v>
+      <c r="K10" s="20">
+        <v>200</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -4984,20 +4485,20 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="11">
-        <v>50</v>
+      <c r="K11" s="20">
+        <v>32</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -5012,20 +4513,20 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="11">
-        <v>50</v>
+      <c r="K12" s="20">
+        <v>32</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -5033,37 +4534,33 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:16">
-      <c r="A13" s="9">
-        <v>900</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="23"/>
+    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="20">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A14" s="7">
@@ -5072,23 +4569,21 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>50</v>
       </c>
       <c r="L14" s="7"/>
@@ -5097,159 +4592,167 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A15" s="7">
+    <row r="15" s="2" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A15" s="9">
         <v>902</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A16" s="11">
+      <c r="B15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="9">
+        <v>50</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A16" s="7">
         <v>903</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="11">
-        <v>50</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="24"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A17" s="11">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A17" s="9">
         <v>904</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="24"/>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="16.5" spans="1:16">
+      <c r="B17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="26"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:16">
       <c r="A18" s="11">
         <v>905</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="11"/>
-      <c r="P18" s="24"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:16">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="P18" s="27"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A19" s="9">
+        <v>906</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:16">
       <c r="A20" s="7"/>
@@ -5288,80 +4791,68 @@
       <c r="P21" s="7"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:16">
-      <c r="A22" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:16">
-      <c r="A23" s="13">
+      <c r="A23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:16">
+      <c r="A24" s="13">
         <v>1</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:16">
-      <c r="A24" s="13"/>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>146</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -5370,21 +4861,29 @@
     <row r="25" s="1" customFormat="1" spans="1:16">
       <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -5392,119 +4891,123 @@
     <row r="26" s="1" customFormat="1" spans="1:16">
       <c r="A26" s="13"/>
       <c r="B26" s="4" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="G26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:16">
       <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="20"/>
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:16">
       <c r="A28" s="13"/>
-      <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="B28" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="23"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:16">
       <c r="A29" s="13"/>
-      <c r="B29" s="7">
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:16">
+      <c r="A30" s="13"/>
+      <c r="B30" s="7">
         <v>1</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:16">
-      <c r="A30" s="15"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="18"/>
+      <c r="C30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="22"/>
+      <c r="G30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:16">
-      <c r="A31" s="17"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
       <c r="D31" s="16"/>
@@ -5514,68 +5017,56 @@
       <c r="H31" s="18"/>
       <c r="I31" s="6"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="22"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="25"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:16">
-      <c r="A32" s="13">
+      <c r="A32" s="17"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="25"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:16">
+      <c r="A33" s="13">
         <v>2</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:16">
-      <c r="A33" s="13"/>
       <c r="B33" s="4" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>127</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -5584,21 +5075,29 @@
     <row r="34" s="1" customFormat="1" spans="1:16">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="5"/>
+      <c r="M34" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -5606,119 +5105,123 @@
     <row r="35" s="1" customFormat="1" spans="1:16">
       <c r="A35" s="13"/>
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="G35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:16">
       <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="20"/>
+      <c r="B36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:16">
       <c r="A37" s="13"/>
-      <c r="B37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
+      <c r="B37" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="23"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:16">
       <c r="A38" s="13"/>
-      <c r="B38" s="7">
+      <c r="B38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:16">
+      <c r="A39" s="13"/>
+      <c r="B39" s="7">
         <v>1</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:16">
-      <c r="A39" s="15"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="18"/>
+      <c r="C39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="22"/>
+      <c r="G39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:16">
-      <c r="A40" s="17"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
       <c r="D40" s="16"/>
@@ -5728,68 +5231,56 @@
       <c r="H40" s="18"/>
       <c r="I40" s="6"/>
       <c r="J40" s="18"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="22"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="25"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:16">
-      <c r="A41" s="13">
+      <c r="A41" s="17"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="25"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:16">
+      <c r="A42" s="13">
         <v>3</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:16">
-      <c r="A42" s="13"/>
       <c r="B42" s="4" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -5798,21 +5289,29 @@
     <row r="43" s="1" customFormat="1" spans="1:16">
       <c r="A43" s="13"/>
       <c r="B43" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="5"/>
+      <c r="M43" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
@@ -5820,119 +5319,123 @@
     <row r="44" s="1" customFormat="1" spans="1:16">
       <c r="A44" s="13"/>
       <c r="B44" s="4" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="G44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:16">
       <c r="A45" s="13"/>
-      <c r="B45" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="20"/>
+      <c r="B45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:16">
       <c r="A46" s="13"/>
-      <c r="B46" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
+      <c r="B46" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="23"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:16">
       <c r="A47" s="13"/>
-      <c r="B47" s="7">
+      <c r="B47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:16">
+      <c r="A48" s="13"/>
+      <c r="B48" s="7">
         <v>1</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:16">
-      <c r="A48" s="15"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="18"/>
+      <c r="C48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="22"/>
+      <c r="G48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:16">
-      <c r="A49" s="17"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="7"/>
       <c r="C49" s="6"/>
       <c r="D49" s="16"/>
@@ -5942,12 +5445,30 @@
       <c r="H49" s="18"/>
       <c r="I49" s="6"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="22"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="25"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:16">
+      <c r="A50" s="17"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="142">
@@ -5963,12 +5484,7 @@
     <mergeCell ref="D4:P4"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A23:P23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H24:J24"/>
@@ -5980,15 +5496,15 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:P25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B28:J28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="C29:E29"/>
@@ -6006,9 +5522,9 @@
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="B33:C33"/>
@@ -6022,15 +5538,15 @@
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:P34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="M36:P36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B37:J37"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="M37:P37"/>
     <mergeCell ref="C38:E38"/>
@@ -6048,9 +5564,9 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:P40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="M41:P41"/>
     <mergeCell ref="B42:C42"/>
@@ -6064,15 +5580,15 @@
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:P43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="M44:P44"/>
-    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:J45"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="M45:P45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B46:J46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:P46"/>
     <mergeCell ref="C47:E47"/>
@@ -6090,9 +5606,14 @@
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:P49"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="A42:A50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v1.xlsx
+++ b/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" activeTab="5"/>
+    <workbookView windowWidth="27645" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="140">
   <si>
     <t>#变量名</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>名</t>
@@ -1965,8 +1968,8 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2394,9 +2397,7 @@
       <c r="D15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
         <v>89</v>
@@ -2809,7 +2810,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3237,9 +3238,7 @@
       <c r="D15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
         <v>89</v>
@@ -3652,7 +3651,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4050,9 +4049,7 @@
       <c r="D14" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
         <v>89</v>
@@ -4186,8 +4183,8 @@
   <sheetPr/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4427,10 +4424,12 @@
       <c r="D9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="7" t="s">
@@ -4455,12 +4454,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
@@ -4485,7 +4486,7 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -4513,7 +4514,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -4541,7 +4542,7 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -4697,9 +4698,7 @@
       <c r="D18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
         <v>89</v>
@@ -4837,7 +4836,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -4873,7 +4872,7 @@
         <v>52</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -4988,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -5051,7 +5050,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -5202,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -5265,7 +5264,7 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -5416,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>

--- a/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v1.xlsx
+++ b/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v1.xlsx
@@ -357,16 +357,16 @@
     <t>Region</t>
   </si>
   <si>
-    <t>区域</t>
-  </si>
-  <si>
-    <t>区域ID</t>
-  </si>
-  <si>
-    <t>区域名称</t>
-  </si>
-  <si>
-    <t>上级区域</t>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>地区ID</t>
+  </si>
+  <si>
+    <t>地区名称</t>
+  </si>
+  <si>
+    <t>上级地区</t>
   </si>
   <si>
     <t>org_unit_job_title</t>
@@ -1969,7 +1969,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C28" sqref="C28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4184,7 +4184,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="D35" sqref="D35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v1.xlsx
+++ b/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="140">
   <si>
     <t>#变量名</t>
   </si>
@@ -246,64 +246,64 @@
     <t>部门名称</t>
   </si>
   <si>
+    <t>PARENT_ID</t>
+  </si>
+  <si>
+    <t>上级部门</t>
+  </si>
+  <si>
+    <t>CREATED_BY</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>UPDATED_BY</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>CREATED_AT</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>UPDATED_AT</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>数据版本</t>
+  </si>
+  <si>
+    <t>DELETED</t>
+  </si>
+  <si>
+    <t>已删除？</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>关联列表</t>
+  </si>
+  <si>
+    <t>属性名</t>
+  </si>
+  <si>
     <t>parent</t>
-  </si>
-  <si>
-    <t>PARENT_ID</t>
-  </si>
-  <si>
-    <t>上级部门</t>
-  </si>
-  <si>
-    <t>CREATED_BY</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>UPDATED_BY</t>
-  </si>
-  <si>
-    <t>更新人</t>
-  </si>
-  <si>
-    <t>CREATED_AT</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>UPDATED_AT</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>VERSION</t>
-  </si>
-  <si>
-    <t>数据版本</t>
-  </si>
-  <si>
-    <t>DELETED</t>
-  </si>
-  <si>
-    <t>已删除？</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>关联列表</t>
-  </si>
-  <si>
-    <t>属性名</t>
   </si>
   <si>
     <t>关联属性名</t>
@@ -1969,7 +1969,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:E28"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2237,16 +2237,14 @@
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
@@ -2269,12 +2267,12 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>35</v>
@@ -2297,22 +2295,22 @@
         <v>902</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>36</v>
@@ -2333,12 +2331,12 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>38</v>
@@ -2347,7 +2345,7 @@
         <v>71</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -2361,16 +2359,16 @@
         <v>904</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>40</v>
@@ -2379,7 +2377,7 @@
         <v>71</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -2395,12 +2393,12 @@
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>41</v>
@@ -2423,27 +2421,27 @@
         <v>906</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -2508,7 +2506,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2531,11 +2529,11 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2563,7 +2561,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2810,7 +2808,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3078,11 +3076,9 @@
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -3110,12 +3106,12 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>35</v>
@@ -3138,22 +3134,22 @@
         <v>902</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>36</v>
@@ -3174,12 +3170,12 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>38</v>
@@ -3188,7 +3184,7 @@
         <v>71</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -3202,16 +3198,16 @@
         <v>904</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>40</v>
@@ -3220,7 +3216,7 @@
         <v>71</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -3236,12 +3232,12 @@
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>41</v>
@@ -3264,27 +3260,27 @@
         <v>906</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -3349,7 +3345,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3372,11 +3368,11 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3921,12 +3917,12 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>35</v>
@@ -3949,22 +3945,22 @@
         <v>902</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>36</v>
@@ -3985,12 +3981,12 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>38</v>
@@ -3999,7 +3995,7 @@
         <v>71</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -4013,16 +4009,16 @@
         <v>904</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>40</v>
@@ -4031,7 +4027,7 @@
         <v>71</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -4047,12 +4043,12 @@
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>41</v>
@@ -4075,27 +4071,27 @@
         <v>906</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -4570,12 +4566,12 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>35</v>
@@ -4598,22 +4594,22 @@
         <v>902</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>36</v>
@@ -4634,12 +4630,12 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>38</v>
@@ -4648,7 +4644,7 @@
         <v>71</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -4662,16 +4658,16 @@
         <v>904</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>40</v>
@@ -4680,7 +4676,7 @@
         <v>71</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -4696,12 +4692,12 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>41</v>
@@ -4724,27 +4720,27 @@
         <v>906</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -4809,7 +4805,7 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:16">
       <c r="A23" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4832,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
@@ -5046,7 +5042,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5" t="s">
@@ -5260,7 +5256,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
